--- a/analise.xlsx
+++ b/analise.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Frase</t>
   </si>
@@ -31,28 +31,22 @@
     <t>Acuracia</t>
   </si>
   <si>
-    <t>Poderia ter sido melhor devido ao pouco tempo que tenho para dedicar aos estudos</t>
-  </si>
-  <si>
     <t>Foi um desenvolvimento mediano poderia ter um maior compromentimento com a materia e avaliação</t>
   </si>
   <si>
     <t>Tive um desempenho razoavel na avaliação</t>
   </si>
   <si>
+    <t>O professor não mostrou uma completa dominio no assunto porem ele explicou de maneira clara como o trabalho deveria ser feito porem não me senti motivado para realizar o trabalho por considerar a materia sem graça apenas de necessario</t>
+  </si>
+  <si>
     <t>Aula bastante prudutiva pois foi abordado diversos assuntos e dicas sobre os temas de tcc</t>
   </si>
   <si>
-    <t>Desempenho moderado devido ao cansaço que é apresentado pela extensa correria que a facudade nos proporciona</t>
-  </si>
-  <si>
     <t>Mediocre poderia ter sido melhor</t>
   </si>
   <si>
-    <t>Algoritmo e um da materias mais intensas do curso testa muito o aluno todo sabemos que e cansativo o curso o dia de trabalho viemos para a facudade já com a mente cansata os exercicios são complexos os indices de aliação em questão de porentagem são pequenas com tudo o estudo em casa é dificil e devido a quantidade de alunos a  pelo ajuda monitorada do professor nem sempre e satisfatoria</t>
-  </si>
-  <si>
-    <t>Neutro prestando atenção fazendo pesquisas para conseguir absorver o conhecimento</t>
+    <t>A avaliação aplicada estava de acordo com o conteudo apresentado em sala</t>
   </si>
   <si>
     <t>Não muito bem esperava que seria diferente o meu desempenho</t>
@@ -61,10 +55,10 @@
     <t>Eu perdi algumas aulas estou um pouco receioso com o resultado da avaliação</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Positivo</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>errado</t>
@@ -425,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,62 +444,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -516,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -525,127 +519,87 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>-1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/analise.xlsx
+++ b/analise.xlsx
@@ -31,7 +31,10 @@
     <t>Acuracia</t>
   </si>
   <si>
-    <t>Foi um desenvolvimento mediano poderia ter um maior compromentimento com a materia e avaliação</t>
+    <t>Poderia ter sido melhor devido ao pouco tempo que tenho para dedicar aos estudos</t>
+  </si>
+  <si>
+    <t>Poderia ser melhor pois não me doei o suficiente para ele</t>
   </si>
   <si>
     <t>Tive um desempenho razoavel na avaliação</t>
@@ -43,9 +46,6 @@
     <t>Aula bastante prudutiva pois foi abordado diversos assuntos e dicas sobre os temas de tcc</t>
   </si>
   <si>
-    <t>Mediocre poderia ter sido melhor</t>
-  </si>
-  <si>
     <t>A avaliação aplicada estava de acordo com o conteudo apresentado em sala</t>
   </si>
   <si>
@@ -55,10 +55,10 @@
     <t>Eu perdi algumas aulas estou um pouco receioso com o resultado da avaliação</t>
   </si>
   <si>
+    <t>Positivo</t>
+  </si>
+  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>Positivo</t>
   </si>
   <si>
     <t>errado</t>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -473,10 +473,10 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -484,19 +484,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -504,19 +504,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -550,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>0</v>
